--- a/public/import/import-customer.xlsx
+++ b/public/import/import-customer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Sandisk 16gb\Kelas XII\Vemto\Test\File for import data on KZ_Coffee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Sandisk 16gb\Kelas XII\Vemto\Test\kz_coffee\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF95CDE4-FF41-4183-822D-10F3F5BF2A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7488D1F9-5B64-4CE1-A863-AC117337568F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5568" yWindow="2328" windowWidth="17280" windowHeight="8964" xr2:uid="{B8A5715B-FE1D-440E-B233-FF77B9926FC5}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="14952" windowHeight="9900" xr2:uid="{B8A5715B-FE1D-440E-B233-FF77B9926FC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Nama</t>
   </si>
@@ -43,6 +43,78 @@
   </si>
   <si>
     <t>BTN Rancabali No 56</t>
+  </si>
+  <si>
+    <t>Raihan</t>
+  </si>
+  <si>
+    <t>Gin Gin</t>
+  </si>
+  <si>
+    <t>Ikhsan</t>
+  </si>
+  <si>
+    <t>Hafidz</t>
+  </si>
+  <si>
+    <t>Arkha</t>
+  </si>
+  <si>
+    <t>Bayu</t>
+  </si>
+  <si>
+    <t>Agus</t>
+  </si>
+  <si>
+    <t>Wildan</t>
+  </si>
+  <si>
+    <t>raihan@gmail.com</t>
+  </si>
+  <si>
+    <t>gincore@gmail.com</t>
+  </si>
+  <si>
+    <t>ikhsan2@gmail.com</t>
+  </si>
+  <si>
+    <t>hhpidzh@gmail.com</t>
+  </si>
+  <si>
+    <t>arkha45@gmail.com</t>
+  </si>
+  <si>
+    <t>bayur39@gmail.com</t>
+  </si>
+  <si>
+    <t>aguscahaya@gmail.com</t>
+  </si>
+  <si>
+    <t>wildanyusuf@gmail.com</t>
+  </si>
+  <si>
+    <t>Komplek Mawar Indah Blok C2</t>
+  </si>
+  <si>
+    <t>Perumahan Melati Permai 2</t>
+  </si>
+  <si>
+    <t>Apartemen Bunga Sakura Tower 10B</t>
+  </si>
+  <si>
+    <t>Komp. Kenanga Hijau Permai Blok F2/12</t>
+  </si>
+  <si>
+    <t>Graha Dahlia Jaya, Jl. Mawar Barat 3</t>
+  </si>
+  <si>
+    <t>Jl. Melati Utara 8C</t>
+  </si>
+  <si>
+    <t>Cluster Dahlia Residence No. 17</t>
+  </si>
+  <si>
+    <t>Jl. Dahlia Selatan 5A</t>
   </si>
 </sst>
 </file>
@@ -428,16 +500,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A067EB52-90E5-4B97-8AA7-3AFDBE37EA5A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -462,9 +535,105 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{AB4C1F04-2D77-4061-A4A6-211798F6703A}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{FAC8389B-E40A-4BF4-959D-360564ED42D4}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{AE9E8C66-2AF6-4F48-8429-3247B86E804B}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{9B1BF3F5-8DBC-4500-A5DF-228E728855FC}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{D3CE0F7B-D1CD-471D-89A4-40C77571B759}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{F047BAAB-A241-4640-8400-DB93B1A1D0C4}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{D36C8C61-84D2-480C-AB67-4D474525E6F9}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{267DB821-1724-48E1-B59E-E56F8C64BE01}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{ED589167-C2A3-44C7-9FFB-38BBB08CF043}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
